--- a/database/data/airports.xlsx
+++ b/database/data/airports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\crud_livewire\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C22CCD-00AF-422B-A89A-EEA1368ACCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1B2627-642F-481C-8438-19A8A967CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F63A83E4-522F-4EE0-A49E-58891E933153}"/>
   </bookViews>
@@ -550,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB4D408-6F7B-4AEA-8F62-E868918948F8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,6 +776,114 @@
         <v>$table-&gt;text('coordinates')-&gt;comment('');</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12" t="str">
+        <f>CONCATENATE("'",A3,"' =&gt; $data['",E16,"'],")</f>
+        <v>'ident' =&gt; $data['0'],</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="str">
+        <f t="shared" ref="F17:F27" si="1">CONCATENATE("'",A4,"' =&gt; $data['",E17,"'],")</f>
+        <v>'type' =&gt; $data['1'],</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'name' =&gt; $data['2'],</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'elevation_ft' =&gt; $data['3'],</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'continent' =&gt; $data['4'],</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'iso_country' =&gt; $data['5'],</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'iso_region' =&gt; $data['6'],</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'municipality' =&gt; $data['7'],</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'gps_code' =&gt; $data['8'],</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'iata_code' =&gt; $data['9'],</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'local_code' =&gt; $data['10'],</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>'coordinates' =&gt; $data['11'],</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
